--- a/ФСУ/9009.xlsx
+++ b/ФСУ/9009.xlsx
@@ -5,27 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ФСУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F8628-697D-498E-ABBE-5885D5045609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD980EC-275A-4173-AD60-2D73D7AD46E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9009" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Предмет</t>
   </si>
@@ -127,6 +136,9 @@
   </si>
   <si>
     <t>Соловьев Александр Васильевич</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -267,26 +279,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -400,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -605,7 +617,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,13 +679,13 @@
       <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -700,13 +712,13 @@
       <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -733,13 +745,13 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -766,12 +778,12 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -799,12 +811,12 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -832,12 +844,12 @@
       <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -865,12 +877,12 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -898,12 +910,12 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -931,12 +943,12 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -964,12 +976,12 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -997,13 +1009,13 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1030,13 +1042,13 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1063,13 +1075,13 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1312,12 +1324,24 @@
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -1381,13 +1405,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -1400,6 +1417,13 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
